--- a/lab5_resource/control.xlsx
+++ b/lab5_resource/control.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -569,8 +569,8 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -592,7 +592,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>001x0001x0</v>
+        <v>00100001x0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">

--- a/lab5_resource/control.xlsx
+++ b/lab5_resource/control.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -638,8 +638,8 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -664,7 +664,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>xxxx0100x0</v>
+        <v>xx0x0100x0</v>
       </c>
     </row>
   </sheetData>

--- a/lab5_resource/control.xlsx
+++ b/lab5_resource/control.xlsx
@@ -81,10 +81,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>xx</t>
-  </si>
-  <si>
     <t>Jump</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -635,8 +635,8 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -664,7 +664,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>xx0x0100x0</v>
+        <v>110x0100x0</v>
       </c>
     </row>
   </sheetData>

--- a/lab5_resource/control.xlsx
+++ b/lab5_resource/control.xlsx
@@ -414,10 +414,22 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
+    <col min="3" max="3" width="6.46484375" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.06640625" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="9.46484375" customWidth="1"/>
+    <col min="10" max="10" width="8.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -639,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -664,7 +676,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>110x0100x0</v>
+        <v>111x0100x0</v>
       </c>
     </row>
   </sheetData>
